--- a/Documentos/4 EDT gantt/EDT+Carta Gantt.xlsx
+++ b/Documentos/4 EDT gantt/EDT+Carta Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectoCIDEF\Documentos\4 EDT gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836FCF2F-7319-4275-A04C-9826D97EDBB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CAED75-1402-4EA4-9D65-C275D99AF551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,32 +430,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF99"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF66CC"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF99FF66"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FFFFFF66"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -925,9 +925,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -943,52 +961,34 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -998,11 +998,15 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF66"/>
+      <color rgb="FF99FF66"/>
+      <color rgb="FF008080"/>
+      <color rgb="FF9933FF"/>
+      <color rgb="FFCCCCFF"/>
       <color rgb="FFFF66CC"/>
       <color rgb="FF00FF99"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FFCC00FF"/>
-      <color rgb="FF9933FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1059,7 +1063,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1111,7 +1115,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1374,14 +1378,14 @@
     </row>
     <row r="2" spans="1:27" customFormat="1" ht="26.25" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="91"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="97"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="2"/>
@@ -1440,12 +1444,12 @@
       <c r="C4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
       <c r="H4" s="22"/>
       <c r="I4" s="4"/>
       <c r="J4" s="14"/>
@@ -2217,12 +2221,12 @@
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1"/>
     <row r="26" spans="1:27" ht="15.75" customHeight="1">
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="94"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="100"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1">
       <c r="B27" s="13" t="s">
@@ -3254,7 +3258,7 @@
   <dimension ref="A1:AO963"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3406,16 +3410,16 @@
       <c r="V2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="99" t="s">
+      <c r="W2" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="99" t="s">
+      <c r="X2" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="99" t="s">
+      <c r="Y2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="99" t="s">
+      <c r="Z2" s="88" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3426,40 +3430,40 @@
       <c r="B3" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="95" t="s">
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="95" t="s">
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="95" t="s">
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="101" t="s">
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="102"/>
-      <c r="Z3" s="102"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="17" t="s">
@@ -3488,10 +3492,10 @@
       <c r="T4" s="57"/>
       <c r="U4" s="57"/>
       <c r="V4" s="57"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="100"/>
-      <c r="Z4" s="100"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="17" t="s">
@@ -3505,7 +3509,7 @@
       <c r="E5" s="56"/>
       <c r="F5" s="84"/>
       <c r="G5" s="82"/>
-      <c r="H5" s="98"/>
+      <c r="H5" s="87"/>
       <c r="I5" s="54"/>
       <c r="J5" s="54"/>
       <c r="K5" s="58"/>
@@ -3539,8 +3543,8 @@
       <c r="G6" s="60"/>
       <c r="H6" s="85"/>
       <c r="I6" s="85"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
       <c r="L6" s="61"/>
       <c r="M6" s="61"/>
       <c r="N6" s="61"/>
@@ -3573,21 +3577,21 @@
       <c r="I7" s="85"/>
       <c r="J7" s="60"/>
       <c r="K7" s="60"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
-      <c r="Y7" s="104"/>
-      <c r="Z7" s="104"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
     </row>
     <row r="8" spans="1:26" ht="15.75">
       <c r="A8" s="17" t="s">
@@ -3596,30 +3600,30 @@
       <c r="B8" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
-      <c r="U8" s="110"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="110"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="111"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="102"/>
+      <c r="Y8" s="102"/>
+      <c r="Z8" s="103"/>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="17" t="s">
@@ -3635,23 +3639,23 @@
       <c r="G9" s="56"/>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="98"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="87"/>
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="87"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="17" t="s">
@@ -3668,22 +3672,22 @@
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="98"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="98"/>
-      <c r="V10" s="98"/>
-      <c r="W10" s="98"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="98"/>
-      <c r="Z10" s="98"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="17" t="s">
@@ -3701,21 +3705,21 @@
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
       <c r="K11" s="56"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="98"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="98"/>
-      <c r="U11" s="98"/>
-      <c r="V11" s="98"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="98"/>
-      <c r="Y11" s="98"/>
-      <c r="Z11" s="98"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="87"/>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="17" t="s">
@@ -3733,21 +3737,21 @@
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
       <c r="K12" s="56"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="98"/>
-      <c r="V12" s="98"/>
-      <c r="W12" s="98"/>
-      <c r="X12" s="98"/>
-      <c r="Y12" s="98"/>
-      <c r="Z12" s="98"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="87"/>
     </row>
     <row r="13" spans="1:26" ht="15.75">
       <c r="A13" s="17" t="s">
@@ -3756,30 +3760,30 @@
       <c r="B13" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="110"/>
-      <c r="S13" s="110"/>
-      <c r="T13" s="110"/>
-      <c r="U13" s="110"/>
-      <c r="V13" s="110"/>
-      <c r="W13" s="110"/>
-      <c r="X13" s="110"/>
-      <c r="Y13" s="110"/>
-      <c r="Z13" s="111"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="102"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="102"/>
+      <c r="Z13" s="103"/>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="17" t="s">
@@ -3799,9 +3803,9 @@
       <c r="K14" s="56"/>
       <c r="L14" s="57"/>
       <c r="M14" s="57"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="109"/>
       <c r="Q14" s="57"/>
       <c r="R14" s="57"/>
       <c r="S14" s="57"/>
@@ -3833,9 +3837,9 @@
       <c r="M15" s="57"/>
       <c r="N15" s="57"/>
       <c r="O15" s="57"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="109"/>
+      <c r="R15" s="109"/>
       <c r="S15" s="57"/>
       <c r="T15" s="57"/>
       <c r="U15" s="57"/>
@@ -3866,11 +3870,11 @@
       <c r="N16" s="57"/>
       <c r="O16" s="57"/>
       <c r="P16" s="57"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="86"/>
+      <c r="Q16" s="109"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="109"/>
+      <c r="T16" s="109"/>
+      <c r="U16" s="109"/>
       <c r="V16" s="57"/>
       <c r="W16" s="57"/>
       <c r="X16" s="57"/>
@@ -3901,9 +3905,9 @@
       <c r="Q17" s="57"/>
       <c r="R17" s="57"/>
       <c r="S17" s="57"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
+      <c r="T17" s="109"/>
+      <c r="U17" s="109"/>
+      <c r="V17" s="109"/>
       <c r="W17" s="57"/>
       <c r="X17" s="57"/>
       <c r="Y17" s="57"/>
@@ -3916,30 +3920,30 @@
       <c r="B18" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="109"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="110"/>
-      <c r="U18" s="110"/>
-      <c r="V18" s="110"/>
-      <c r="W18" s="110"/>
-      <c r="X18" s="110"/>
-      <c r="Y18" s="110"/>
-      <c r="Z18" s="111"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="102"/>
+      <c r="U18" s="102"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="102"/>
+      <c r="X18" s="102"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="103"/>
     </row>
     <row r="19" spans="1:41" ht="15.75" customHeight="1">
       <c r="A19" s="17" t="s">
@@ -3967,10 +3971,10 @@
       <c r="S19" s="57"/>
       <c r="T19" s="57"/>
       <c r="U19" s="57"/>
-      <c r="V19" s="87"/>
-      <c r="W19" s="87"/>
-      <c r="X19" s="87"/>
-      <c r="Y19" s="87"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="86"/>
+      <c r="X19" s="86"/>
+      <c r="Y19" s="86"/>
       <c r="Z19" s="56"/>
     </row>
     <row r="20" spans="1:41" ht="15.75" customHeight="1">
@@ -4000,10 +4004,10 @@
       <c r="T20" s="57"/>
       <c r="U20" s="57"/>
       <c r="V20" s="56"/>
-      <c r="W20" s="87"/>
-      <c r="X20" s="87"/>
-      <c r="Y20" s="87"/>
-      <c r="Z20" s="87"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="86"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="86"/>
     </row>
     <row r="21" spans="1:41" ht="15.75" customHeight="1">
       <c r="A21" s="17" t="s">
@@ -4035,7 +4039,7 @@
       <c r="W21" s="56"/>
       <c r="X21" s="56"/>
       <c r="Y21" s="56"/>
-      <c r="Z21" s="87"/>
+      <c r="Z21" s="86"/>
     </row>
     <row r="22" spans="1:41" ht="15.75" customHeight="1">
       <c r="C22" s="38"/>
@@ -14411,28 +14415,28 @@
       <c r="K961" s="38"/>
     </row>
     <row r="962" spans="2:23" ht="15.75" customHeight="1">
-      <c r="B962" s="96"/>
-      <c r="C962" s="97"/>
-      <c r="D962" s="97"/>
-      <c r="E962" s="97"/>
-      <c r="F962" s="97"/>
-      <c r="G962" s="97"/>
-      <c r="H962" s="97"/>
-      <c r="I962" s="97"/>
-      <c r="J962" s="97"/>
-      <c r="K962" s="97"/>
-      <c r="L962" s="97"/>
-      <c r="M962" s="97"/>
-      <c r="N962" s="97"/>
-      <c r="O962" s="97"/>
-      <c r="P962" s="97"/>
-      <c r="Q962" s="97"/>
-      <c r="R962" s="97"/>
-      <c r="S962" s="97"/>
-      <c r="T962" s="97"/>
-      <c r="U962" s="97"/>
-      <c r="V962" s="97"/>
-      <c r="W962" s="97"/>
+      <c r="B962" s="104"/>
+      <c r="C962" s="105"/>
+      <c r="D962" s="105"/>
+      <c r="E962" s="105"/>
+      <c r="F962" s="105"/>
+      <c r="G962" s="105"/>
+      <c r="H962" s="105"/>
+      <c r="I962" s="105"/>
+      <c r="J962" s="105"/>
+      <c r="K962" s="105"/>
+      <c r="L962" s="105"/>
+      <c r="M962" s="105"/>
+      <c r="N962" s="105"/>
+      <c r="O962" s="105"/>
+      <c r="P962" s="105"/>
+      <c r="Q962" s="105"/>
+      <c r="R962" s="105"/>
+      <c r="S962" s="105"/>
+      <c r="T962" s="105"/>
+      <c r="U962" s="105"/>
+      <c r="V962" s="105"/>
+      <c r="W962" s="105"/>
     </row>
     <row r="963" spans="2:23" ht="15.75" customHeight="1">
       <c r="C963" s="38"/>
